--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\LubanTest\Luban\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA6223-63FA-40AB-A4BC-8CBD3FED1689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A41BF4-2F5C-4FE6-8CC8-AAF7F5763992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="9645" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11490" yWindow="8220" windowWidth="19500" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>reward.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TBItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,6 +597,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A41BF4-2F5C-4FE6-8CC8-AAF7F5763992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592455E-F127-4B5E-B865-0ABEE9D17EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="8220" windowWidth="19500" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14535" yWindow="3975" windowWidth="22935" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -103,18 +103,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>demo.Reward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.TbReward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>demo.TBItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,6 +112,54 @@
   </si>
   <si>
     <t>item.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TbEndReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.EndReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.TbStartReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo.StartReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartReward@reward.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndReward@reward.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +185,22 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,15 +230,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,9 +251,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,141 +531,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{5D71924D-EFBB-49E0-AD36-F2235B81B46E}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{3E81C806-9556-4AD4-8225-312682D5078B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2592455E-F127-4B5E-B865-0ABEE9D17EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7090C4A4-F5EA-4092-8FA0-C85CFC9494A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="3975" windowWidth="22935" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="3390" windowWidth="22935" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,14 +116,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>demo.TBItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>item.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,14 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>demo.TbEndReward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.EndReward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EndReward</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,14 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>demo.TbStartReward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo.StartReward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>StartReward@reward.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,6 +149,30 @@
   </si>
   <si>
     <t>Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model.TbStartReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model.TbEndReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model.TBItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean.StartReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean.EndReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean.Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -593,10 +606,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -651,56 +664,56 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameFramework\DataTables\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GameFramework\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7090C4A4-F5EA-4092-8FA0-C85CFC9494A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB4CD6-5123-4130-8B38-0B171AD47A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="3390" windowWidth="22935" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -174,6 +174,39 @@
   <si>
     <t>Bean.Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewConfig</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>ArtUI</t>
+  </si>
+  <si>
+    <t>ArtSprite</t>
+  </si>
+  <si>
+    <t>ArtAtlas</t>
+  </si>
+  <si>
+    <t>ArtMap</t>
+  </si>
+  <si>
+    <t>ArtEffect</t>
+  </si>
+  <si>
+    <t>ArtSound</t>
+  </si>
+  <si>
+    <t>ArtModel</t>
+  </si>
+  <si>
+    <t>ArtBattleEffect</t>
+  </si>
+  <si>
+    <t>ArtStar</t>
   </si>
 </sst>
 </file>
@@ -254,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +299,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -544,23 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="2" max="3" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -639,7 +681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -662,7 +704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -682,7 +724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -702,7 +744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
@@ -715,6 +757,306 @@
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" ref="D7:D16" si="0">"Model."&amp;B7&amp;"_"&amp;C7&amp;"Model"</f>
+        <v>Model.ViewConfig_ViewConfigModel</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" ref="E7:E16" si="1">"Bean."&amp;B7&amp;"_"&amp;C7</f>
+        <v>Bean.ViewConfig_ViewConfig</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ref="G7:G16" si="2">C7&amp;"@"&amp;B7&amp;".xlsx"</f>
+        <v>ViewConfig@ViewConfig.xlsx</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtUIModel</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtUI</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtUI@Art.xlsx</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtSpriteModel</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtSprite</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtSprite@Art.xlsx</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtAtlasModel</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtAtlas</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtAtlas@Art.xlsx</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtMapModel</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtMap</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtMap@Art.xlsx</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtEffectModel</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtEffect</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtEffect@Art.xlsx</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtSoundModel</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtSound</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtSound@Art.xlsx</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtModelModel</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtModel</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtModel@Art.xlsx</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.Art_ArtBattleEffectModel</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.Art_ArtBattleEffect</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtBattleEffect@Art.xlsx</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Model.ArtStar_ArtStarModel</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Bean.ArtStar_ArtStar</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>ArtStar@ArtStar.xlsx</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GameFramework\GameFramework\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB4CD6-5123-4130-8B38-0B171AD47A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E15B1-D8CA-41D3-9DAB-15BD11A2B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>ArtBattleEffect</t>
-  </si>
-  <si>
-    <t>ArtStar</t>
   </si>
 </sst>
 </file>
@@ -586,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -767,18 +764,18 @@
         <v>42</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f t="shared" ref="D7:D16" si="0">"Model."&amp;B7&amp;"_"&amp;C7&amp;"Model"</f>
+        <f t="shared" ref="D7:D15" si="0">"Model."&amp;B7&amp;"_"&amp;C7&amp;"Model"</f>
         <v>Model.ViewConfig_ViewConfigModel</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f t="shared" ref="E7:E16" si="1">"Bean."&amp;B7&amp;"_"&amp;C7</f>
+        <f t="shared" ref="E7:E15" si="1">"Bean."&amp;B7&amp;"_"&amp;C7</f>
         <v>Bean.ViewConfig_ViewConfig</v>
       </c>
       <c r="F7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" ref="G7:G16" si="2">C7&amp;"@"&amp;B7&amp;".xlsx"</f>
+        <f t="shared" ref="G7:G15" si="2">C7&amp;"@"&amp;B7&amp;".xlsx"</f>
         <v>ViewConfig@ViewConfig.xlsx</v>
       </c>
       <c r="H7" s="4"/>
@@ -1027,36 +1024,6 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Model.ArtStar_ArtStarModel</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Bean.ArtStar_ArtStar</v>
-      </c>
-      <c r="F16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>ArtStar@ArtStar.xlsx</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
